--- a/TiemposFalla.xlsx
+++ b/TiemposFalla.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cesar.saavedra/Documents/GitHub/MLG-NP_Tarea2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF367518-D985-BB4A-A8C9-9B6E80BE875A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0EF4ACB-48CB-7B4B-82F3-75F1E7F8DC48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1200" windowWidth="34440" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,21 +30,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>TdeFalla</t>
-  </si>
-  <si>
-    <t>Horas a Dias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lambda </t>
-  </si>
-  <si>
-    <t>Tdias</t>
-  </si>
-  <si>
-    <t>Tiempo^Lambda</t>
   </si>
 </sst>
 </file>
@@ -301,903 +289,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1000"/>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.36328125" customWidth="1"/>
-    <col min="3" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="10.36328125" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="26" width="10.36328125" customWidth="1"/>
+    <col min="1" max="26" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1051</v>
       </c>
-      <c r="B2">
-        <f>A2/$I$3</f>
-        <v>43.791666666666664</v>
-      </c>
-      <c r="C2">
-        <f>B2^$I$4</f>
-        <v>1917.7100694444443</v>
-      </c>
-      <c r="D2">
-        <f>A2^$I$4</f>
-        <v>1104601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1337</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B50" si="0">A3/$I$3</f>
-        <v>55.708333333333336</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C50" si="1">B3^$I$4</f>
-        <v>3103.4184027777778</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D50" si="2">A3^$I$4</f>
-        <v>1787569</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1389</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>57.875</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>3349.515625</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="2"/>
-        <v>1929321</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1921</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>80.041666666666671</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>6406.6684027777783</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="2"/>
-        <v>3690241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1942</v>
       </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>80.916666666666671</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>6547.5069444444453</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="2"/>
-        <v>3771364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2322</v>
       </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>96.75</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>9360.5625</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>5391684</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3629</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>151.20833333333334</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>22863.960069444449</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>13169641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4006</v>
       </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>166.91666666666666</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>27861.173611111109</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>16048036</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4012</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>167.16666666666666</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>27944.694444444442</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>16096144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>4063</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>169.29166666666666</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>28659.668402777774</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>16507969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>4921</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>205.04166666666666</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>42042.085069444438</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>24216241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>5445</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>226.875</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>51472.265625</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>29648025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>5620</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>234.16666666666666</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>54834.027777777774</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>31584400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>5817</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>242.375</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>58745.640625</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>33837489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>5905</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>246.04166666666666</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>60536.501736111109</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>34869025</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>5956</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>248.16666666666666</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>61586.694444444438</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>35473936</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>6068</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>252.83333333333334</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>63924.694444444453</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>36820624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>6121</v>
       </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>255.04166666666666</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>65046.251736111109</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>37466641</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>6473</v>
       </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>269.70833333333331</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>72742.585069444438</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>41899729</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>7501</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>312.54166666666669</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>97682.293402777796</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>56265001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>7886</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>328.58333333333331</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>107967.00694444444</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>62188996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>8108</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>337.83333333333331</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>114131.36111111109</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="2"/>
-        <v>65739664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>8546</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>356.08333333333331</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>126795.34027777777</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="2"/>
-        <v>73034116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>8666</v>
       </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>361.08333333333331</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>130381.17361111109</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="2"/>
-        <v>75099556</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>8831</v>
       </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>367.95833333333331</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>135393.33506944444</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
-        <v>77986561</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>9106</v>
       </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>379.41666666666669</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>143957.00694444447</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
-        <v>82919236</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>9711</v>
       </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>404.625</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="1"/>
-        <v>163721.390625</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="2"/>
-        <v>94303521</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>9806</v>
       </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>408.58333333333331</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="1"/>
-        <v>166940.34027777775</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="2"/>
-        <v>96157636</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>10205</v>
       </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>425.20833333333331</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
-        <v>180802.12673611109</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="2"/>
-        <v>104142025</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>10396</v>
       </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>433.16666666666669</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
-        <v>187633.36111111112</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="2"/>
-        <v>108076816</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>10861</v>
       </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>452.54166666666669</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>204793.96006944447</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="2"/>
-        <v>117961321</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>11026</v>
       </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>459.41666666666669</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>211063.67361111112</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="2"/>
-        <v>121572676</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>11214</v>
       </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>467.25</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>218322.5625</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="2"/>
-        <v>125753796</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>11362</v>
       </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>473.41666666666669</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>224123.34027777781</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>129095044</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>11604</v>
       </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>483.5</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>233772.25</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>134652816</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>11608</v>
       </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>483.66666666666669</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
-        <v>233933.44444444447</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>134745664</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>11745</v>
       </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
-        <v>489.375</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="1"/>
-        <v>239487.890625</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="2"/>
-        <v>137945025</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>11762</v>
       </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
-        <v>490.08333333333331</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="1"/>
-        <v>240181.67361111109</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="2"/>
-        <v>138344644</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>11895</v>
       </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>495.625</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="1"/>
-        <v>245644.140625</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="2"/>
-        <v>141491025</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>12044</v>
       </c>
-      <c r="B41">
-        <f t="shared" si="0"/>
-        <v>501.83333333333331</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="1"/>
-        <v>251836.69444444444</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="2"/>
-        <v>145057936</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>13520</v>
       </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
-        <v>563.33333333333337</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="1"/>
-        <v>317344.4444444445</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="2"/>
-        <v>182790400</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>13670</v>
       </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
-        <v>569.58333333333337</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="1"/>
-        <v>324425.17361111118</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="2"/>
-        <v>186868900</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>14110</v>
       </c>
-      <c r="B44">
-        <f t="shared" si="0"/>
-        <v>587.91666666666663</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="1"/>
-        <v>345646.00694444438</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="2"/>
-        <v>199092100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>14496</v>
       </c>
-      <c r="B45">
-        <f t="shared" si="0"/>
-        <v>604</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="1"/>
-        <v>364816</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="2"/>
-        <v>210134016</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>15395</v>
       </c>
-      <c r="B46">
-        <f t="shared" si="0"/>
-        <v>641.45833333333337</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="1"/>
-        <v>411468.79340277781</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="2"/>
-        <v>237006025</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>16179</v>
       </c>
-      <c r="B47">
-        <f t="shared" si="0"/>
-        <v>674.125</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="1"/>
-        <v>454444.515625</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="2"/>
-        <v>261760041</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>17092</v>
       </c>
-      <c r="B48">
-        <f t="shared" si="0"/>
-        <v>712.16666666666663</v>
-      </c>
-      <c r="C48">
-        <f t="shared" si="1"/>
-        <v>507181.36111111107</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="2"/>
-        <v>292136464</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>17568</v>
       </c>
-      <c r="B49">
-        <f t="shared" si="0"/>
-        <v>732</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="1"/>
-        <v>535824</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="2"/>
-        <v>308634624</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>17568</v>
       </c>
-      <c r="B50">
-        <f t="shared" si="0"/>
-        <v>732</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="1"/>
-        <v>535824</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="2"/>
-        <v>308634624</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51">
-        <f>SUM(C2:C50)</f>
-        <v>8324484.2864583321</v>
-      </c>
-      <c r="D51">
-        <f>SUM(D2:D50)</f>
-        <v>4794902949</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="51" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="65" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
